--- a/teste.xlsx
+++ b/teste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.cristiano\Documents\GitHub\Upload-catalogo-de-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD664867-B168-4D40-BA8B-CF1A2B7AC4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E9FDFA-E32D-4CCB-8F68-5DC0A3A1F8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA505A61-50A4-4177-8889-69D069D37BD8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="66">
   <si>
     <t>MATERIAL</t>
   </si>
@@ -111,9 +111,6 @@
     <t>CAMISETA</t>
   </si>
   <si>
-    <t>KINGS</t>
-  </si>
-  <si>
     <t>BRUNX</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Shorts Kings X Toy Story Andy</t>
   </si>
   <si>
-    <t>BLUSA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blusa oversized Kings collab pixar Toy Story </t>
   </si>
   <si>
@@ -178,6 +172,57 @@
   </si>
   <si>
     <t>Calça reta de moletom Kings collab pixar  Toy Story</t>
+  </si>
+  <si>
+    <t>KINGS SNEAKERS</t>
+  </si>
+  <si>
+    <t>CAM1VER26TOY-001</t>
+  </si>
+  <si>
+    <t>CAM1VER26TOY-006</t>
+  </si>
+  <si>
+    <t>CAM2VER26TOY-001</t>
+  </si>
+  <si>
+    <t>CAM2VER26TOY-006</t>
+  </si>
+  <si>
+    <t>CAM3VER26TOY-001</t>
+  </si>
+  <si>
+    <t>CAM4VER26TOY-001</t>
+  </si>
+  <si>
+    <t>CAM4VER26TOY-006</t>
+  </si>
+  <si>
+    <t>CAM5VER26TOY-006</t>
+  </si>
+  <si>
+    <t>CAM6VER26TOY-006</t>
+  </si>
+  <si>
+    <t>SHO1VER26TOY-006</t>
+  </si>
+  <si>
+    <t>CAM6VER26TOY-016</t>
+  </si>
+  <si>
+    <t>SHO1VER26TOY-016</t>
+  </si>
+  <si>
+    <t>SHO2VER26TOY-006</t>
+  </si>
+  <si>
+    <t>SHO2VER26TOY-001</t>
+  </si>
+  <si>
+    <t>BLU1TOY26-001</t>
+  </si>
+  <si>
+    <t>CAL1TOY26-001</t>
   </si>
 </sst>
 </file>
@@ -532,15 +577,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4735A727-2098-408E-8617-B32469348B55}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B67" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
@@ -564,7 +609,7 @@
       <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" t="s">
@@ -617,20 +662,26 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>600230855</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -652,20 +703,26 @@
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>600230856</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -687,20 +744,26 @@
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>600230857</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -722,20 +785,26 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>600230858</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
         <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
@@ -757,26 +826,32 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>600230859</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
         <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -792,26 +867,32 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>600230860</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
         <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
@@ -827,23 +908,29 @@
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>600230861</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -862,23 +949,29 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>600230862</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
         <v>31</v>
       </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -897,23 +990,29 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>600230863</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
@@ -932,23 +1031,29 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>600230864</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
         <v>31</v>
       </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
         <v>18</v>
@@ -967,26 +1072,32 @@
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>600230865</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
         <v>31</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
         <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" t="s">
-        <v>33</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
@@ -1002,26 +1113,32 @@
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>600230866</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
         <v>31</v>
       </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
@@ -1037,20 +1154,26 @@
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>600230867</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
@@ -1072,20 +1195,26 @@
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>600230868</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
@@ -1107,20 +1236,26 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>600230869</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
@@ -1142,20 +1277,26 @@
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>600230870</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -1177,26 +1318,32 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
-        <v>28</v>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>600230871</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L18" t="s">
         <v>15</v>
@@ -1212,26 +1359,32 @@
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>600230872</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
         <v>15</v>
@@ -1247,23 +1400,29 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
-        <v>28</v>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>600230873</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
         <v>14</v>
@@ -1282,23 +1441,29 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
-        <v>28</v>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>600230874</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
@@ -1317,23 +1482,29 @@
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="s">
-        <v>28</v>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22">
+        <v>600230875</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
@@ -1352,23 +1523,29 @@
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
-        <v>28</v>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>600230876</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
         <v>18</v>
@@ -1387,26 +1564,32 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
-        <v>28</v>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>600230877</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L24" t="s">
         <v>15</v>
@@ -1422,26 +1605,32 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
-        <v>28</v>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>600230878</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25" t="s">
         <v>15</v>
@@ -1457,20 +1646,26 @@
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
-        <v>28</v>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>600230879</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s">
         <v>20</v>
@@ -1492,20 +1687,26 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>28</v>
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>600230880</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s">
         <v>20</v>
@@ -1527,20 +1728,26 @@
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>28</v>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>600230881</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s">
         <v>20</v>
@@ -1562,20 +1769,26 @@
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
-        <v>28</v>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>600230882</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
@@ -1597,26 +1810,32 @@
       <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" t="s">
-        <v>28</v>
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>600230883</v>
+      </c>
+      <c r="E30" t="s">
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30" t="s">
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L30" t="s">
         <v>15</v>
@@ -1632,26 +1851,32 @@
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" t="s">
-        <v>28</v>
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>600230884</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L31" t="s">
         <v>15</v>
@@ -1667,20 +1892,26 @@
       <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="C32" t="s">
-        <v>28</v>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>600230885</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s">
         <v>20</v>
@@ -1702,20 +1933,26 @@
       <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="C33" t="s">
-        <v>28</v>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>600230886</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s">
         <v>20</v>
@@ -1737,20 +1974,26 @@
       <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="C34" t="s">
-        <v>28</v>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>600230887</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s">
         <v>20</v>
@@ -1772,20 +2015,26 @@
       <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" t="s">
-        <v>28</v>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>600230888</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J35" t="s">
         <v>20</v>
@@ -1807,26 +2056,32 @@
       <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C36" t="s">
-        <v>28</v>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36">
+        <v>600230889</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J36" t="s">
         <v>20</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L36" t="s">
         <v>15</v>
@@ -1842,26 +2097,32 @@
       <c r="B37" t="s">
         <v>27</v>
       </c>
-      <c r="C37" t="s">
-        <v>28</v>
+      <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>600230890</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s">
         <v>20</v>
       </c>
       <c r="K37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L37" t="s">
         <v>15</v>
@@ -1877,23 +2138,29 @@
       <c r="B38" t="s">
         <v>27</v>
       </c>
-      <c r="C38" t="s">
-        <v>28</v>
+      <c r="C38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38">
+        <v>600230891</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K38" t="s">
         <v>14</v>
@@ -1912,23 +2179,29 @@
       <c r="B39" t="s">
         <v>27</v>
       </c>
-      <c r="C39" t="s">
-        <v>28</v>
+      <c r="C39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39">
+        <v>600230892</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K39" t="s">
         <v>16</v>
@@ -1947,23 +2220,29 @@
       <c r="B40" t="s">
         <v>27</v>
       </c>
-      <c r="C40" t="s">
-        <v>28</v>
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>600230893</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -1982,23 +2261,29 @@
       <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="C41" t="s">
-        <v>28</v>
+      <c r="C41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41">
+        <v>600230894</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K41" t="s">
         <v>18</v>
@@ -2017,26 +2302,32 @@
       <c r="B42" t="s">
         <v>27</v>
       </c>
-      <c r="C42" t="s">
-        <v>28</v>
+      <c r="C42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42">
+        <v>600230895</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L42" t="s">
         <v>15</v>
@@ -2052,26 +2343,32 @@
       <c r="B43" t="s">
         <v>27</v>
       </c>
-      <c r="C43" t="s">
-        <v>28</v>
+      <c r="C43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43">
+        <v>600230896</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L43" t="s">
         <v>15</v>
@@ -2087,23 +2384,29 @@
       <c r="B44" t="s">
         <v>27</v>
       </c>
-      <c r="C44" t="s">
-        <v>28</v>
+      <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44">
+        <v>600230897</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K44" t="s">
         <v>14</v>
@@ -2122,23 +2425,29 @@
       <c r="B45" t="s">
         <v>27</v>
       </c>
-      <c r="C45" t="s">
-        <v>28</v>
+      <c r="C45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45">
+        <v>600230898</v>
+      </c>
+      <c r="E45" t="s">
+        <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K45" t="s">
         <v>16</v>
@@ -2157,23 +2466,29 @@
       <c r="B46" t="s">
         <v>27</v>
       </c>
-      <c r="C46" t="s">
-        <v>28</v>
+      <c r="C46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46">
+        <v>600230899</v>
+      </c>
+      <c r="E46" t="s">
+        <v>57</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s">
         <v>17</v>
@@ -2192,23 +2507,29 @@
       <c r="B47" t="s">
         <v>27</v>
       </c>
-      <c r="C47" t="s">
-        <v>28</v>
+      <c r="C47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47">
+        <v>600230900</v>
+      </c>
+      <c r="E47" t="s">
+        <v>57</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K47" t="s">
         <v>18</v>
@@ -2227,26 +2548,32 @@
       <c r="B48" t="s">
         <v>27</v>
       </c>
-      <c r="C48" t="s">
-        <v>28</v>
+      <c r="C48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>600230901</v>
+      </c>
+      <c r="E48" t="s">
+        <v>57</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L48" t="s">
         <v>15</v>
@@ -2262,26 +2589,32 @@
       <c r="B49" t="s">
         <v>27</v>
       </c>
-      <c r="C49" t="s">
-        <v>28</v>
+      <c r="C49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49">
+        <v>600230902</v>
+      </c>
+      <c r="E49" t="s">
+        <v>57</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L49" t="s">
         <v>15</v>
@@ -2297,20 +2630,26 @@
       <c r="B50" t="s">
         <v>27</v>
       </c>
-      <c r="C50" t="s">
-        <v>28</v>
+      <c r="C50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>600230903</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J50" t="s">
         <v>21</v>
@@ -2332,20 +2671,26 @@
       <c r="B51" t="s">
         <v>27</v>
       </c>
-      <c r="C51" t="s">
-        <v>28</v>
+      <c r="C51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>600230904</v>
+      </c>
+      <c r="E51" t="s">
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J51" t="s">
         <v>21</v>
@@ -2367,20 +2712,26 @@
       <c r="B52" t="s">
         <v>27</v>
       </c>
-      <c r="C52" t="s">
-        <v>28</v>
+      <c r="C52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52">
+        <v>600230905</v>
+      </c>
+      <c r="E52" t="s">
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J52" t="s">
         <v>21</v>
@@ -2402,20 +2753,26 @@
       <c r="B53" t="s">
         <v>27</v>
       </c>
-      <c r="C53" t="s">
-        <v>28</v>
+      <c r="C53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53">
+        <v>600230906</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J53" t="s">
         <v>21</v>
@@ -2437,26 +2794,32 @@
       <c r="B54" t="s">
         <v>27</v>
       </c>
-      <c r="C54" t="s">
-        <v>28</v>
+      <c r="C54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54">
+        <v>600230907</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J54" t="s">
         <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L54" t="s">
         <v>15</v>
@@ -2472,26 +2835,32 @@
       <c r="B55" t="s">
         <v>27</v>
       </c>
-      <c r="C55" t="s">
-        <v>28</v>
+      <c r="C55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55">
+        <v>600230908</v>
+      </c>
+      <c r="E55" t="s">
+        <v>58</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J55" t="s">
         <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L55" t="s">
         <v>15</v>
@@ -2502,25 +2871,31 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
         <v>41</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56">
+        <v>600230909</v>
+      </c>
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" t="s">
         <v>42</v>
-      </c>
-      <c r="C56" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" t="s">
-        <v>43</v>
       </c>
       <c r="J56" t="s">
         <v>21</v>
@@ -2529,7 +2904,7 @@
         <v>14</v>
       </c>
       <c r="L56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -2537,25 +2912,31 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
         <v>41</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57">
+        <v>600230910</v>
+      </c>
+      <c r="E57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s">
         <v>42</v>
-      </c>
-      <c r="C57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" t="s">
-        <v>31</v>
-      </c>
-      <c r="I57" t="s">
-        <v>43</v>
       </c>
       <c r="J57" t="s">
         <v>21</v>
@@ -2564,7 +2945,7 @@
         <v>16</v>
       </c>
       <c r="L57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -2572,25 +2953,31 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
         <v>41</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>600230911</v>
+      </c>
+      <c r="E58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58" t="s">
         <v>42</v>
-      </c>
-      <c r="C58" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" t="s">
-        <v>31</v>
-      </c>
-      <c r="I58" t="s">
-        <v>43</v>
       </c>
       <c r="J58" t="s">
         <v>21</v>
@@ -2599,7 +2986,7 @@
         <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -2607,25 +2994,31 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
         <v>41</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59">
+        <v>600230912</v>
+      </c>
+      <c r="E59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59" t="s">
         <v>42</v>
-      </c>
-      <c r="C59" t="s">
-        <v>28</v>
-      </c>
-      <c r="F59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" t="s">
-        <v>31</v>
-      </c>
-      <c r="I59" t="s">
-        <v>43</v>
       </c>
       <c r="J59" t="s">
         <v>21</v>
@@ -2634,7 +3027,7 @@
         <v>18</v>
       </c>
       <c r="L59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -2642,34 +3035,40 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
         <v>41</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60">
+        <v>600230913</v>
+      </c>
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" t="s">
         <v>42</v>
-      </c>
-      <c r="C60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
-      </c>
-      <c r="H60" t="s">
-        <v>31</v>
-      </c>
-      <c r="I60" t="s">
-        <v>43</v>
       </c>
       <c r="J60" t="s">
         <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -2677,34 +3076,40 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
         <v>41</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61">
+        <v>600230914</v>
+      </c>
+      <c r="E61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
         <v>42</v>
-      </c>
-      <c r="C61" t="s">
-        <v>28</v>
-      </c>
-      <c r="F61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H61" t="s">
-        <v>31</v>
-      </c>
-      <c r="I61" t="s">
-        <v>43</v>
       </c>
       <c r="J61" t="s">
         <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -2717,20 +3122,26 @@
       <c r="B62" t="s">
         <v>27</v>
       </c>
-      <c r="C62" t="s">
-        <v>28</v>
+      <c r="C62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62">
+        <v>600230915</v>
+      </c>
+      <c r="E62" t="s">
+        <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J62" t="s">
         <v>19</v>
@@ -2752,20 +3163,26 @@
       <c r="B63" t="s">
         <v>27</v>
       </c>
-      <c r="C63" t="s">
-        <v>28</v>
+      <c r="C63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63">
+        <v>600230916</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J63" t="s">
         <v>19</v>
@@ -2787,20 +3204,26 @@
       <c r="B64" t="s">
         <v>27</v>
       </c>
-      <c r="C64" t="s">
-        <v>28</v>
+      <c r="C64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64">
+        <v>600230917</v>
+      </c>
+      <c r="E64" t="s">
+        <v>60</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J64" t="s">
         <v>19</v>
@@ -2822,20 +3245,26 @@
       <c r="B65" t="s">
         <v>27</v>
       </c>
-      <c r="C65" t="s">
-        <v>28</v>
+      <c r="C65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65">
+        <v>600230918</v>
+      </c>
+      <c r="E65" t="s">
+        <v>60</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J65" t="s">
         <v>19</v>
@@ -2857,26 +3286,32 @@
       <c r="B66" t="s">
         <v>27</v>
       </c>
-      <c r="C66" t="s">
-        <v>28</v>
+      <c r="C66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66">
+        <v>600230919</v>
+      </c>
+      <c r="E66" t="s">
+        <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J66" t="s">
         <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L66" t="s">
         <v>15</v>
@@ -2892,26 +3327,32 @@
       <c r="B67" t="s">
         <v>27</v>
       </c>
-      <c r="C67" t="s">
-        <v>28</v>
+      <c r="C67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67">
+        <v>600230920</v>
+      </c>
+      <c r="E67" t="s">
+        <v>60</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J67" t="s">
         <v>19</v>
       </c>
       <c r="K67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L67" t="s">
         <v>15</v>
@@ -2922,25 +3363,31 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
         <v>41</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68">
+        <v>600230921</v>
+      </c>
+      <c r="E68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" t="s">
         <v>42</v>
-      </c>
-      <c r="C68" t="s">
-        <v>28</v>
-      </c>
-      <c r="F68" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" t="s">
-        <v>31</v>
-      </c>
-      <c r="I68" t="s">
-        <v>43</v>
       </c>
       <c r="J68" t="s">
         <v>19</v>
@@ -2949,7 +3396,7 @@
         <v>14</v>
       </c>
       <c r="L68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -2957,25 +3404,31 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" t="s">
         <v>41</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69">
+        <v>600230922</v>
+      </c>
+      <c r="E69" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" t="s">
+        <v>30</v>
+      </c>
+      <c r="I69" t="s">
         <v>42</v>
-      </c>
-      <c r="C69" t="s">
-        <v>28</v>
-      </c>
-      <c r="F69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
-      <c r="H69" t="s">
-        <v>31</v>
-      </c>
-      <c r="I69" t="s">
-        <v>43</v>
       </c>
       <c r="J69" t="s">
         <v>19</v>
@@ -2984,7 +3437,7 @@
         <v>16</v>
       </c>
       <c r="L69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -2992,25 +3445,31 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
         <v>41</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70">
+        <v>600230923</v>
+      </c>
+      <c r="E70" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s">
+        <v>30</v>
+      </c>
+      <c r="I70" t="s">
         <v>42</v>
-      </c>
-      <c r="C70" t="s">
-        <v>28</v>
-      </c>
-      <c r="F70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" t="s">
-        <v>31</v>
-      </c>
-      <c r="I70" t="s">
-        <v>43</v>
       </c>
       <c r="J70" t="s">
         <v>19</v>
@@ -3019,7 +3478,7 @@
         <v>17</v>
       </c>
       <c r="L70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -3027,25 +3486,31 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
         <v>41</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71">
+        <v>600230924</v>
+      </c>
+      <c r="E71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" t="s">
         <v>42</v>
-      </c>
-      <c r="C71" t="s">
-        <v>28</v>
-      </c>
-      <c r="F71" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71" t="s">
-        <v>31</v>
-      </c>
-      <c r="I71" t="s">
-        <v>43</v>
       </c>
       <c r="J71" t="s">
         <v>19</v>
@@ -3054,7 +3519,7 @@
         <v>18</v>
       </c>
       <c r="L71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -3062,34 +3527,40 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
         <v>41</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72">
+        <v>600230925</v>
+      </c>
+      <c r="E72" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" t="s">
+        <v>30</v>
+      </c>
+      <c r="I72" t="s">
         <v>42</v>
-      </c>
-      <c r="C72" t="s">
-        <v>28</v>
-      </c>
-      <c r="F72" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72" t="s">
-        <v>31</v>
-      </c>
-      <c r="I72" t="s">
-        <v>43</v>
       </c>
       <c r="J72" t="s">
         <v>19</v>
       </c>
       <c r="K72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -3097,34 +3568,40 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" t="s">
         <v>41</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73">
+        <v>600230926</v>
+      </c>
+      <c r="E73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s">
         <v>42</v>
-      </c>
-      <c r="C73" t="s">
-        <v>28</v>
-      </c>
-      <c r="F73" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" t="s">
-        <v>31</v>
-      </c>
-      <c r="I73" t="s">
-        <v>43</v>
       </c>
       <c r="J73" t="s">
         <v>19</v>
       </c>
       <c r="K73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -3132,34 +3609,40 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74">
+        <v>600230927</v>
+      </c>
+      <c r="E74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s">
         <v>45</v>
       </c>
-      <c r="B74" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F74" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" t="s">
-        <v>30</v>
-      </c>
-      <c r="H74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I74" t="s">
-        <v>46</v>
-      </c>
       <c r="J74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K74" t="s">
         <v>14</v>
       </c>
       <c r="L74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -3167,34 +3650,40 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75">
+        <v>600230928</v>
+      </c>
+      <c r="E75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" t="s">
         <v>45</v>
       </c>
-      <c r="B75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" t="s">
-        <v>28</v>
-      </c>
-      <c r="F75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" t="s">
-        <v>31</v>
-      </c>
-      <c r="I75" t="s">
-        <v>46</v>
-      </c>
       <c r="J75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K75" t="s">
         <v>16</v>
       </c>
       <c r="L75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -3202,34 +3691,40 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76">
+        <v>600230929</v>
+      </c>
+      <c r="E76" t="s">
+        <v>62</v>
+      </c>
+      <c r="F76" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" t="s">
         <v>45</v>
       </c>
-      <c r="B76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76" t="s">
-        <v>28</v>
-      </c>
-      <c r="F76" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" t="s">
-        <v>30</v>
-      </c>
-      <c r="H76" t="s">
-        <v>31</v>
-      </c>
-      <c r="I76" t="s">
-        <v>46</v>
-      </c>
       <c r="J76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K76" t="s">
         <v>17</v>
       </c>
       <c r="L76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -3237,34 +3732,40 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77">
+        <v>600230930</v>
+      </c>
+      <c r="E77" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" t="s">
         <v>45</v>
       </c>
-      <c r="B77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77" t="s">
-        <v>28</v>
-      </c>
-      <c r="F77" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" t="s">
-        <v>31</v>
-      </c>
-      <c r="I77" t="s">
-        <v>46</v>
-      </c>
       <c r="J77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K77" t="s">
         <v>18</v>
       </c>
       <c r="L77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -3272,34 +3773,40 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78">
+        <v>600230931</v>
+      </c>
+      <c r="E78" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" t="s">
+        <v>30</v>
+      </c>
+      <c r="I78" t="s">
         <v>45</v>
       </c>
-      <c r="B78" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78" t="s">
-        <v>28</v>
-      </c>
-      <c r="F78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" t="s">
-        <v>30</v>
-      </c>
-      <c r="H78" t="s">
-        <v>31</v>
-      </c>
-      <c r="I78" t="s">
-        <v>46</v>
-      </c>
       <c r="J78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -3307,34 +3814,40 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79">
+        <v>600230932</v>
+      </c>
+      <c r="E79" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" t="s">
         <v>45</v>
       </c>
-      <c r="B79" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" t="s">
-        <v>28</v>
-      </c>
-      <c r="F79" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" t="s">
-        <v>31</v>
-      </c>
-      <c r="I79" t="s">
-        <v>46</v>
-      </c>
       <c r="J79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -3342,25 +3855,31 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80">
+        <v>600230933</v>
+      </c>
+      <c r="E80" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" t="s">
+        <v>30</v>
+      </c>
+      <c r="I80" t="s">
         <v>45</v>
-      </c>
-      <c r="B80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C80" t="s">
-        <v>28</v>
-      </c>
-      <c r="F80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" t="s">
-        <v>31</v>
-      </c>
-      <c r="I80" t="s">
-        <v>46</v>
       </c>
       <c r="J80" t="s">
         <v>20</v>
@@ -3369,7 +3888,7 @@
         <v>14</v>
       </c>
       <c r="L80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -3377,25 +3896,31 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81">
+        <v>600230934</v>
+      </c>
+      <c r="E81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" t="s">
+        <v>30</v>
+      </c>
+      <c r="I81" t="s">
         <v>45</v>
-      </c>
-      <c r="B81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" t="s">
-        <v>31</v>
-      </c>
-      <c r="I81" t="s">
-        <v>46</v>
       </c>
       <c r="J81" t="s">
         <v>20</v>
@@ -3404,7 +3929,7 @@
         <v>16</v>
       </c>
       <c r="L81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -3412,25 +3937,31 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82">
+        <v>600230935</v>
+      </c>
+      <c r="E82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" t="s">
         <v>45</v>
-      </c>
-      <c r="B82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" t="s">
-        <v>28</v>
-      </c>
-      <c r="F82" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82" t="s">
-        <v>31</v>
-      </c>
-      <c r="I82" t="s">
-        <v>46</v>
       </c>
       <c r="J82" t="s">
         <v>20</v>
@@ -3439,7 +3970,7 @@
         <v>17</v>
       </c>
       <c r="L82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -3447,25 +3978,31 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83">
+        <v>600230936</v>
+      </c>
+      <c r="E83" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" t="s">
+        <v>30</v>
+      </c>
+      <c r="I83" t="s">
         <v>45</v>
-      </c>
-      <c r="B83" t="s">
-        <v>42</v>
-      </c>
-      <c r="C83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" t="s">
-        <v>31</v>
-      </c>
-      <c r="I83" t="s">
-        <v>46</v>
       </c>
       <c r="J83" t="s">
         <v>20</v>
@@ -3474,7 +4011,7 @@
         <v>18</v>
       </c>
       <c r="L83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -3482,34 +4019,40 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84">
+        <v>600230937</v>
+      </c>
+      <c r="E84" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84" t="s">
         <v>45</v>
-      </c>
-      <c r="B84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" t="s">
-        <v>28</v>
-      </c>
-      <c r="F84" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" t="s">
-        <v>30</v>
-      </c>
-      <c r="H84" t="s">
-        <v>31</v>
-      </c>
-      <c r="I84" t="s">
-        <v>46</v>
       </c>
       <c r="J84" t="s">
         <v>20</v>
       </c>
       <c r="K84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -3517,34 +4060,40 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85">
+        <v>600230938</v>
+      </c>
+      <c r="E85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I85" t="s">
         <v>45</v>
-      </c>
-      <c r="B85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C85" t="s">
-        <v>28</v>
-      </c>
-      <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" t="s">
-        <v>31</v>
-      </c>
-      <c r="I85" t="s">
-        <v>46</v>
       </c>
       <c r="J85" t="s">
         <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -3555,22 +4104,28 @@
         <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86">
+        <v>600230939</v>
+      </c>
+      <c r="E86" t="s">
+        <v>64</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J86" t="s">
         <v>20</v>
@@ -3590,22 +4145,28 @@
         <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87">
+        <v>600230940</v>
+      </c>
+      <c r="E87" t="s">
+        <v>64</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J87" t="s">
         <v>20</v>
@@ -3625,22 +4186,28 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88">
+        <v>600230941</v>
+      </c>
+      <c r="E88" t="s">
+        <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J88" t="s">
         <v>20</v>
@@ -3660,22 +4227,28 @@
         <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89">
+        <v>600230942</v>
+      </c>
+      <c r="E89" t="s">
+        <v>64</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J89" t="s">
         <v>20</v>
@@ -3695,28 +4268,34 @@
         <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90">
+        <v>600230943</v>
+      </c>
+      <c r="E90" t="s">
+        <v>64</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J90" t="s">
         <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L90" t="s">
         <v>15</v>
@@ -3730,28 +4309,34 @@
         <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91">
+        <v>600230944</v>
+      </c>
+      <c r="E91" t="s">
+        <v>64</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J91" t="s">
         <v>20</v>
       </c>
       <c r="K91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L91" t="s">
         <v>15</v>
@@ -3765,22 +4350,28 @@
         <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
-      </c>
-      <c r="C92" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92">
+        <v>600230945</v>
+      </c>
+      <c r="E92" t="s">
+        <v>65</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J92" t="s">
         <v>20</v>
@@ -3789,7 +4380,7 @@
         <v>14</v>
       </c>
       <c r="L92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -3800,22 +4391,28 @@
         <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
-      </c>
-      <c r="C93" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93">
+        <v>600230946</v>
+      </c>
+      <c r="E93" t="s">
+        <v>65</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J93" t="s">
         <v>20</v>
@@ -3824,7 +4421,7 @@
         <v>16</v>
       </c>
       <c r="L93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -3835,22 +4432,28 @@
         <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94">
+        <v>600230947</v>
+      </c>
+      <c r="E94" t="s">
+        <v>65</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I94" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J94" t="s">
         <v>20</v>
@@ -3859,7 +4462,7 @@
         <v>17</v>
       </c>
       <c r="L94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -3870,22 +4473,28 @@
         <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C95" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95">
+        <v>600230948</v>
+      </c>
+      <c r="E95" t="s">
+        <v>65</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I95" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J95" t="s">
         <v>20</v>
@@ -3894,7 +4503,7 @@
         <v>18</v>
       </c>
       <c r="L95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -3905,31 +4514,37 @@
         <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C96" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96">
+        <v>600230949</v>
+      </c>
+      <c r="E96" t="s">
+        <v>65</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J96" t="s">
         <v>20</v>
       </c>
       <c r="K96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -3940,31 +4555,37 @@
         <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97">
+        <v>600230950</v>
+      </c>
+      <c r="E97" t="s">
+        <v>65</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J97" t="s">
         <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q97">
         <v>0</v>
